--- a/Data/EC/NIT-8300021831.xlsx
+++ b/Data/EC/NIT-8300021831.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28C7AF52-32C6-4A60-957B-952D306309A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E21EBA8-0AFB-4DD9-BAA0-91B1D9AA26EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3187F429-9365-47CC-8CC8-8AAA45B8DF13}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7A0E78D2-F09D-4364-8EFD-1AF1D42577C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -359,9 +359,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -374,7 +372,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -568,29 +568,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,19 +609,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -674,7 +680,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E574E324-423F-059C-7AE3-4B6306AE81DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F14636-B30B-0845-C372-32BFA8DAAF2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1025,7 +1031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AAD075-F60E-4614-A5FE-C0D45AA9D8C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD771879-97ED-4D51-AD3C-B987BB9B5EE8}">
   <dimension ref="B2:J207"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1048,49 +1054,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1098,7 +1104,7 @@
         <v>76</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1114,7 +1120,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>8300021831</v>
       </c>
@@ -1130,7 +1136,7 @@
         <v>77</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>5751879</v>
       </c>
@@ -1199,18 +1205,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>24640</v>
       </c>
-      <c r="G16" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="G16" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1222,18 +1228,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>24640</v>
       </c>
-      <c r="G17" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="G17" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1245,18 +1251,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>24640</v>
       </c>
-      <c r="G18" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="G18" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1268,18 +1274,18 @@
       <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>24640</v>
       </c>
-      <c r="G19" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="G19" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1291,18 +1297,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>24640</v>
       </c>
-      <c r="G20" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="G20" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1314,18 +1320,18 @@
       <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>24640</v>
       </c>
-      <c r="G21" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="G21" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1337,18 +1343,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>24640</v>
       </c>
-      <c r="G22" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="G22" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1360,18 +1366,18 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>24640</v>
       </c>
-      <c r="G23" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="G23" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1383,18 +1389,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>24640</v>
       </c>
-      <c r="G24" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="G24" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1406,18 +1412,18 @@
       <c r="D25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>24640</v>
       </c>
-      <c r="G25" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="G25" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1429,18 +1435,18 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>24640</v>
       </c>
-      <c r="G26" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="G26" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1452,18 +1458,18 @@
       <c r="D27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>24640</v>
       </c>
-      <c r="G27" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="G27" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1475,18 +1481,18 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>24640</v>
       </c>
-      <c r="G28" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="G28" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1498,18 +1504,18 @@
       <c r="D29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>24640</v>
       </c>
-      <c r="G29" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="G29" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1521,18 +1527,18 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>24640</v>
       </c>
-      <c r="G30" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="G30" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1544,18 +1550,18 @@
       <c r="D31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>24640</v>
       </c>
-      <c r="G31" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="G31" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1567,18 +1573,18 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>24640</v>
       </c>
-      <c r="G32" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="G32" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1590,18 +1596,18 @@
       <c r="D33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>24640</v>
       </c>
-      <c r="G33" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="G33" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1613,18 +1619,18 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>24640</v>
       </c>
-      <c r="G34" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="G34" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1636,18 +1642,18 @@
       <c r="D35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>24640</v>
       </c>
-      <c r="G35" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="G35" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1659,18 +1665,18 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>24640</v>
       </c>
-      <c r="G36" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="G36" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1682,18 +1688,18 @@
       <c r="D37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>24640</v>
       </c>
-      <c r="G37" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="G37" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1705,18 +1711,18 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>24640</v>
       </c>
-      <c r="G38" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="G38" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1728,18 +1734,18 @@
       <c r="D39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>24640</v>
       </c>
-      <c r="G39" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="G39" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1751,18 +1757,18 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>24640</v>
       </c>
-      <c r="G40" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="G40" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1774,18 +1780,18 @@
       <c r="D41" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="19">
         <v>24640</v>
       </c>
-      <c r="G41" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="G41" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1797,18 +1803,18 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>24640</v>
       </c>
-      <c r="G42" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="G42" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1820,18 +1826,18 @@
       <c r="D43" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>24640</v>
       </c>
-      <c r="G43" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="G43" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1843,18 +1849,18 @@
       <c r="D44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="19">
         <v>24640</v>
       </c>
-      <c r="G44" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="G44" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1866,18 +1872,18 @@
       <c r="D45" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="19">
         <v>24640</v>
       </c>
-      <c r="G45" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="G45" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1889,18 +1895,18 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="19">
         <v>24640</v>
       </c>
-      <c r="G46" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="G46" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1912,18 +1918,18 @@
       <c r="D47" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="19">
         <v>24640</v>
       </c>
-      <c r="G47" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="G47" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1935,18 +1941,18 @@
       <c r="D48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="19">
         <v>24640</v>
       </c>
-      <c r="G48" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="G48" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1958,18 +1964,18 @@
       <c r="D49" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="19">
         <v>24640</v>
       </c>
-      <c r="G49" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="G49" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -1981,18 +1987,18 @@
       <c r="D50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="19">
         <v>24640</v>
       </c>
-      <c r="G50" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="G50" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -2004,18 +2010,18 @@
       <c r="D51" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="19">
         <v>24640</v>
       </c>
-      <c r="G51" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="G51" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2027,18 +2033,18 @@
       <c r="D52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="19">
         <v>24640</v>
       </c>
-      <c r="G52" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="G52" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2050,18 +2056,18 @@
       <c r="D53" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="19">
         <v>24640</v>
       </c>
-      <c r="G53" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="G53" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2073,18 +2079,18 @@
       <c r="D54" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="19">
         <v>24640</v>
       </c>
-      <c r="G54" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="G54" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2096,18 +2102,18 @@
       <c r="D55" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="19">
         <v>24640</v>
       </c>
-      <c r="G55" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="G55" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2119,18 +2125,18 @@
       <c r="D56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="19">
         <v>24640</v>
       </c>
-      <c r="G56" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="G56" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2142,18 +2148,18 @@
       <c r="D57" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="19">
         <v>24640</v>
       </c>
-      <c r="G57" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="G57" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2165,18 +2171,18 @@
       <c r="D58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="19">
         <v>24640</v>
       </c>
-      <c r="G58" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="G58" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2188,18 +2194,18 @@
       <c r="D59" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="19">
         <v>24640</v>
       </c>
-      <c r="G59" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="G59" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2211,18 +2217,18 @@
       <c r="D60" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="19">
         <v>24640</v>
       </c>
-      <c r="G60" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="G60" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2234,18 +2240,18 @@
       <c r="D61" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="19">
         <v>24640</v>
       </c>
-      <c r="G61" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="G61" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2257,18 +2263,18 @@
       <c r="D62" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="19">
         <v>29509</v>
       </c>
-      <c r="G62" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="G62" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2280,18 +2286,18 @@
       <c r="D63" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="19">
         <v>40000</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="19">
         <v>1000000</v>
       </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2303,18 +2309,18 @@
       <c r="D64" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="19">
         <v>24640</v>
       </c>
-      <c r="G64" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="G64" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2326,18 +2332,18 @@
       <c r="D65" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="19">
         <v>24640</v>
       </c>
-      <c r="G65" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="G65" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2349,18 +2355,18 @@
       <c r="D66" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F66" s="19">
         <v>29509</v>
       </c>
-      <c r="G66" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="G66" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2372,18 +2378,18 @@
       <c r="D67" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="19">
         <v>40000</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="19">
         <v>1000000</v>
       </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2395,18 +2401,18 @@
       <c r="D68" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F68" s="19">
         <v>24640</v>
       </c>
-      <c r="G68" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="G68" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2418,18 +2424,18 @@
       <c r="D69" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="19">
         <v>24640</v>
       </c>
-      <c r="G69" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="G69" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2441,18 +2447,18 @@
       <c r="D70" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F70" s="19">
         <v>29509</v>
       </c>
-      <c r="G70" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="G70" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2464,18 +2470,18 @@
       <c r="D71" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F71" s="19">
         <v>40000</v>
       </c>
-      <c r="G71" s="18">
+      <c r="G71" s="19">
         <v>1000000</v>
       </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2487,18 +2493,18 @@
       <c r="D72" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="19">
         <v>24640</v>
       </c>
-      <c r="G72" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="G72" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2510,18 +2516,18 @@
       <c r="D73" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F73" s="19">
         <v>24640</v>
       </c>
-      <c r="G73" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="G73" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2533,18 +2539,18 @@
       <c r="D74" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F74" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G74" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="F74" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G74" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2556,18 +2562,18 @@
       <c r="D75" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="19">
         <v>40000</v>
       </c>
-      <c r="G75" s="18">
+      <c r="G75" s="19">
         <v>1000000</v>
       </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2579,18 +2585,18 @@
       <c r="D76" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F76" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G76" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="F76" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G76" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2602,18 +2608,18 @@
       <c r="D77" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F77" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G77" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="F77" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G77" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
@@ -2625,18 +2631,18 @@
       <c r="D78" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F78" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G78" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="F78" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G78" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
@@ -2648,18 +2654,18 @@
       <c r="D79" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F79" s="18">
+      <c r="F79" s="19">
         <v>40000</v>
       </c>
-      <c r="G79" s="18">
+      <c r="G79" s="19">
         <v>1000000</v>
       </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
@@ -2671,18 +2677,18 @@
       <c r="D80" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F80" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G80" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="F80" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G80" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
@@ -2694,18 +2700,18 @@
       <c r="D81" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F81" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G81" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="F81" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G81" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
@@ -2717,18 +2723,18 @@
       <c r="D82" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F82" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G82" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="F82" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G82" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
@@ -2740,18 +2746,18 @@
       <c r="D83" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F83" s="18">
+      <c r="F83" s="19">
         <v>40000</v>
       </c>
-      <c r="G83" s="18">
+      <c r="G83" s="19">
         <v>1000000</v>
       </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
@@ -2763,18 +2769,18 @@
       <c r="D84" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F84" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G84" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+      <c r="F84" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G84" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
@@ -2786,18 +2792,18 @@
       <c r="D85" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F85" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G85" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
+      <c r="F85" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G85" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
@@ -2809,18 +2815,18 @@
       <c r="D86" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F86" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G86" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="F86" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G86" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
@@ -2832,18 +2838,18 @@
       <c r="D87" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F87" s="18">
+      <c r="F87" s="19">
         <v>40000</v>
       </c>
-      <c r="G87" s="18">
+      <c r="G87" s="19">
         <v>1000000</v>
       </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
@@ -2855,18 +2861,18 @@
       <c r="D88" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F88" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G88" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
+      <c r="F88" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G88" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
@@ -2878,18 +2884,18 @@
       <c r="D89" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F89" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G89" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+      <c r="F89" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G89" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
@@ -2901,18 +2907,18 @@
       <c r="D90" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F90" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G90" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="F90" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G90" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
@@ -2924,18 +2930,18 @@
       <c r="D91" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F91" s="18">
+      <c r="F91" s="19">
         <v>40000</v>
       </c>
-      <c r="G91" s="18">
+      <c r="G91" s="19">
         <v>1000000</v>
       </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
@@ -2947,18 +2953,18 @@
       <c r="D92" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F92" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G92" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+      <c r="F92" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G92" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
@@ -2970,18 +2976,18 @@
       <c r="D93" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F93" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G93" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
+      <c r="F93" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G93" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
@@ -2993,18 +2999,18 @@
       <c r="D94" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F94" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G94" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
+      <c r="F94" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G94" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
@@ -3016,18 +3022,18 @@
       <c r="D95" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F95" s="18">
+      <c r="F95" s="19">
         <v>40000</v>
       </c>
-      <c r="G95" s="18">
+      <c r="G95" s="19">
         <v>1000000</v>
       </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
@@ -3039,18 +3045,18 @@
       <c r="D96" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F96" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G96" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
+      <c r="F96" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G96" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
@@ -3062,18 +3068,18 @@
       <c r="D97" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F97" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G97" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
+      <c r="F97" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G97" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
@@ -3085,18 +3091,18 @@
       <c r="D98" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F98" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G98" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
+      <c r="F98" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G98" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
@@ -3108,18 +3114,18 @@
       <c r="D99" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F99" s="18">
+      <c r="F99" s="19">
         <v>40000</v>
       </c>
-      <c r="G99" s="18">
+      <c r="G99" s="19">
         <v>1000000</v>
       </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
@@ -3131,18 +3137,18 @@
       <c r="D100" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F100" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G100" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
+      <c r="F100" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G100" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
@@ -3154,18 +3160,18 @@
       <c r="D101" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F101" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G101" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
+      <c r="F101" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G101" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
@@ -3177,18 +3183,18 @@
       <c r="D102" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F102" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G102" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
+      <c r="F102" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G102" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
@@ -3200,18 +3206,18 @@
       <c r="D103" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F103" s="18">
+      <c r="F103" s="19">
         <v>40000</v>
       </c>
-      <c r="G103" s="18">
+      <c r="G103" s="19">
         <v>1000000</v>
       </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="21"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
@@ -3223,18 +3229,18 @@
       <c r="D104" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F104" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G104" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="F104" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G104" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="21"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
@@ -3246,18 +3252,18 @@
       <c r="D105" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F105" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G105" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
+      <c r="F105" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G105" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
@@ -3269,18 +3275,18 @@
       <c r="D106" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F106" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G106" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
+      <c r="F106" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G106" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
@@ -3292,18 +3298,18 @@
       <c r="D107" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F107" s="18">
+      <c r="F107" s="19">
         <v>40000</v>
       </c>
-      <c r="G107" s="18">
+      <c r="G107" s="19">
         <v>1000000</v>
       </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="21"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
@@ -3315,18 +3321,18 @@
       <c r="D108" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F108" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G108" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
+      <c r="F108" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G108" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="21"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
@@ -3338,18 +3344,18 @@
       <c r="D109" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F109" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G109" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
+      <c r="F109" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G109" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
@@ -3361,18 +3367,18 @@
       <c r="D110" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F110" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G110" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
+      <c r="F110" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G110" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="21"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
@@ -3384,18 +3390,18 @@
       <c r="D111" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F111" s="18">
+      <c r="F111" s="19">
         <v>40000</v>
       </c>
-      <c r="G111" s="18">
+      <c r="G111" s="19">
         <v>1000000</v>
       </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="21"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
@@ -3407,18 +3413,18 @@
       <c r="D112" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F112" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G112" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
+      <c r="F112" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G112" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="21"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
@@ -3430,18 +3436,18 @@
       <c r="D113" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F113" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G113" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
+      <c r="F113" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G113" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="21"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
@@ -3453,18 +3459,18 @@
       <c r="D114" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F114" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G114" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
+      <c r="F114" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G114" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="21"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
@@ -3476,18 +3482,18 @@
       <c r="D115" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F115" s="18">
+      <c r="F115" s="19">
         <v>40000</v>
       </c>
-      <c r="G115" s="18">
+      <c r="G115" s="19">
         <v>1000000</v>
       </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="21"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
@@ -3499,18 +3505,18 @@
       <c r="D116" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F116" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G116" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
+      <c r="F116" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G116" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="21"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
@@ -3522,18 +3528,18 @@
       <c r="D117" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F117" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G117" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
+      <c r="F117" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G117" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="21"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
@@ -3545,18 +3551,18 @@
       <c r="D118" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="E118" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F118" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G118" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
+      <c r="F118" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G118" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="21"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
@@ -3568,18 +3574,18 @@
       <c r="D119" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F119" s="18">
+      <c r="F119" s="19">
         <v>40000</v>
       </c>
-      <c r="G119" s="18">
+      <c r="G119" s="19">
         <v>1000000</v>
       </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="21"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
@@ -3591,18 +3597,18 @@
       <c r="D120" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F120" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G120" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
+      <c r="F120" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G120" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="21"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
@@ -3614,18 +3620,18 @@
       <c r="D121" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F121" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G121" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
+      <c r="F121" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G121" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="21"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
@@ -3637,18 +3643,18 @@
       <c r="D122" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="E122" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F122" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G122" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
+      <c r="F122" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G122" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="21"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
@@ -3660,18 +3666,18 @@
       <c r="D123" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E123" s="16" t="s">
+      <c r="E123" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F123" s="18">
+      <c r="F123" s="19">
         <v>40000</v>
       </c>
-      <c r="G123" s="18">
+      <c r="G123" s="19">
         <v>1000000</v>
       </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="21"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
@@ -3683,18 +3689,18 @@
       <c r="D124" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F124" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G124" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
+      <c r="F124" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G124" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="21"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
@@ -3706,18 +3712,18 @@
       <c r="D125" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E125" s="16" t="s">
+      <c r="E125" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F125" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G125" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
+      <c r="F125" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G125" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="21"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
@@ -3729,18 +3735,18 @@
       <c r="D126" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="E126" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F126" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G126" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
+      <c r="F126" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G126" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="21"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B127" s="15" t="s">
@@ -3752,18 +3758,18 @@
       <c r="D127" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E127" s="16" t="s">
+      <c r="E127" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F127" s="18">
+      <c r="F127" s="19">
         <v>40000</v>
       </c>
-      <c r="G127" s="18">
+      <c r="G127" s="19">
         <v>1000000</v>
       </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="21"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
@@ -3775,18 +3781,18 @@
       <c r="D128" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="E128" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F128" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G128" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
+      <c r="F128" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G128" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="21"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" s="15" t="s">
@@ -3798,18 +3804,18 @@
       <c r="D129" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E129" s="16" t="s">
+      <c r="E129" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F129" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G129" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
+      <c r="F129" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G129" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="21"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="15" t="s">
@@ -3821,18 +3827,18 @@
       <c r="D130" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E130" s="16" t="s">
+      <c r="E130" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F130" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G130" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
+      <c r="F130" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G130" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="21"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B131" s="15" t="s">
@@ -3844,18 +3850,18 @@
       <c r="D131" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="E131" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F131" s="18">
+      <c r="F131" s="19">
         <v>40000</v>
       </c>
-      <c r="G131" s="18">
+      <c r="G131" s="19">
         <v>1000000</v>
       </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="21"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B132" s="15" t="s">
@@ -3867,18 +3873,18 @@
       <c r="D132" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E132" s="16" t="s">
+      <c r="E132" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F132" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G132" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
+      <c r="F132" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G132" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="21"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B133" s="15" t="s">
@@ -3890,18 +3896,18 @@
       <c r="D133" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E133" s="16" t="s">
+      <c r="E133" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F133" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G133" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
+      <c r="F133" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G133" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="21"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B134" s="15" t="s">
@@ -3913,18 +3919,18 @@
       <c r="D134" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E134" s="16" t="s">
+      <c r="E134" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F134" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G134" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
+      <c r="F134" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G134" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="21"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B135" s="15" t="s">
@@ -3936,18 +3942,18 @@
       <c r="D135" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E135" s="16" t="s">
+      <c r="E135" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F135" s="18">
+      <c r="F135" s="19">
         <v>40000</v>
       </c>
-      <c r="G135" s="18">
+      <c r="G135" s="19">
         <v>1000000</v>
       </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="21"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B136" s="15" t="s">
@@ -3959,18 +3965,18 @@
       <c r="D136" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E136" s="16" t="s">
+      <c r="E136" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F136" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G136" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
+      <c r="F136" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G136" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="21"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137" s="15" t="s">
@@ -3982,18 +3988,18 @@
       <c r="D137" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E137" s="16" t="s">
+      <c r="E137" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F137" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G137" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="20"/>
+      <c r="F137" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G137" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H137" s="20"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="21"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="15" t="s">
@@ -4005,18 +4011,18 @@
       <c r="D138" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E138" s="16" t="s">
+      <c r="E138" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F138" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G138" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="20"/>
+      <c r="F138" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G138" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="21"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B139" s="15" t="s">
@@ -4028,18 +4034,18 @@
       <c r="D139" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="E139" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F139" s="18">
+      <c r="F139" s="19">
         <v>40000</v>
       </c>
-      <c r="G139" s="18">
+      <c r="G139" s="19">
         <v>1000000</v>
       </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="20"/>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="21"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B140" s="15" t="s">
@@ -4051,18 +4057,18 @@
       <c r="D140" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E140" s="16" t="s">
+      <c r="E140" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F140" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G140" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="20"/>
+      <c r="F140" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G140" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H140" s="20"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="21"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B141" s="15" t="s">
@@ -4074,18 +4080,18 @@
       <c r="D141" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E141" s="16" t="s">
+      <c r="E141" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F141" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G141" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
+      <c r="F141" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G141" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="21"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B142" s="15" t="s">
@@ -4097,18 +4103,18 @@
       <c r="D142" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="E142" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F142" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G142" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
+      <c r="F142" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G142" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="21"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B143" s="15" t="s">
@@ -4120,18 +4126,18 @@
       <c r="D143" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E143" s="16" t="s">
+      <c r="E143" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F143" s="18">
+      <c r="F143" s="19">
         <v>40000</v>
       </c>
-      <c r="G143" s="18">
+      <c r="G143" s="19">
         <v>1000000</v>
       </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="21"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B144" s="15" t="s">
@@ -4143,18 +4149,18 @@
       <c r="D144" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E144" s="16" t="s">
+      <c r="E144" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F144" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G144" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
+      <c r="F144" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G144" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="21"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B145" s="15" t="s">
@@ -4166,18 +4172,18 @@
       <c r="D145" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E145" s="16" t="s">
+      <c r="E145" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F145" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G145" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
+      <c r="F145" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G145" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="21"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B146" s="15" t="s">
@@ -4189,18 +4195,18 @@
       <c r="D146" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E146" s="16" t="s">
+      <c r="E146" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F146" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G146" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
+      <c r="F146" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G146" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="21"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B147" s="15" t="s">
@@ -4212,18 +4218,18 @@
       <c r="D147" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E147" s="16" t="s">
+      <c r="E147" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F147" s="18">
+      <c r="F147" s="19">
         <v>40000</v>
       </c>
-      <c r="G147" s="18">
+      <c r="G147" s="19">
         <v>1000000</v>
       </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+      <c r="J147" s="21"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B148" s="15" t="s">
@@ -4235,18 +4241,18 @@
       <c r="D148" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E148" s="16" t="s">
+      <c r="E148" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F148" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G148" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
+      <c r="F148" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G148" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="21"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B149" s="15" t="s">
@@ -4258,18 +4264,18 @@
       <c r="D149" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E149" s="16" t="s">
+      <c r="E149" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F149" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G149" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
+      <c r="F149" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G149" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H149" s="20"/>
+      <c r="I149" s="20"/>
+      <c r="J149" s="21"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B150" s="15" t="s">
@@ -4281,18 +4287,18 @@
       <c r="D150" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E150" s="16" t="s">
+      <c r="E150" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F150" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G150" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="20"/>
+      <c r="F150" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G150" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="21"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B151" s="15" t="s">
@@ -4304,18 +4310,18 @@
       <c r="D151" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E151" s="16" t="s">
+      <c r="E151" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F151" s="18">
+      <c r="F151" s="19">
         <v>40000</v>
       </c>
-      <c r="G151" s="18">
+      <c r="G151" s="19">
         <v>1000000</v>
       </c>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="20"/>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="21"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B152" s="15" t="s">
@@ -4327,18 +4333,18 @@
       <c r="D152" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E152" s="16" t="s">
+      <c r="E152" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F152" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G152" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
+      <c r="F152" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G152" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="21"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B153" s="15" t="s">
@@ -4350,18 +4356,18 @@
       <c r="D153" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E153" s="16" t="s">
+      <c r="E153" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F153" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G153" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="20"/>
+      <c r="F153" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G153" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="21"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B154" s="15" t="s">
@@ -4373,18 +4379,18 @@
       <c r="D154" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E154" s="16" t="s">
+      <c r="E154" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F154" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G154" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="20"/>
+      <c r="F154" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G154" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="21"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B155" s="15" t="s">
@@ -4396,18 +4402,18 @@
       <c r="D155" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E155" s="16" t="s">
+      <c r="E155" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F155" s="18">
+      <c r="F155" s="19">
         <v>40000</v>
       </c>
-      <c r="G155" s="18">
+      <c r="G155" s="19">
         <v>1000000</v>
       </c>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="20"/>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+      <c r="J155" s="21"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B156" s="15" t="s">
@@ -4419,18 +4425,18 @@
       <c r="D156" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E156" s="16" t="s">
+      <c r="E156" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F156" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G156" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="20"/>
+      <c r="F156" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G156" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="21"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B157" s="15" t="s">
@@ -4442,18 +4448,18 @@
       <c r="D157" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E157" s="16" t="s">
+      <c r="E157" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F157" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G157" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="20"/>
+      <c r="F157" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G157" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+      <c r="J157" s="21"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B158" s="15" t="s">
@@ -4465,18 +4471,18 @@
       <c r="D158" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E158" s="16" t="s">
+      <c r="E158" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F158" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G158" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="20"/>
+      <c r="F158" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G158" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H158" s="20"/>
+      <c r="I158" s="20"/>
+      <c r="J158" s="21"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B159" s="15" t="s">
@@ -4488,18 +4494,18 @@
       <c r="D159" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E159" s="16" t="s">
+      <c r="E159" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F159" s="18">
+      <c r="F159" s="19">
         <v>40000</v>
       </c>
-      <c r="G159" s="18">
+      <c r="G159" s="19">
         <v>1000000</v>
       </c>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="20"/>
+      <c r="H159" s="20"/>
+      <c r="I159" s="20"/>
+      <c r="J159" s="21"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B160" s="15" t="s">
@@ -4511,18 +4517,18 @@
       <c r="D160" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E160" s="16" t="s">
+      <c r="E160" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F160" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G160" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="20"/>
+      <c r="F160" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G160" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H160" s="20"/>
+      <c r="I160" s="20"/>
+      <c r="J160" s="21"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B161" s="15" t="s">
@@ -4534,18 +4540,18 @@
       <c r="D161" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E161" s="16" t="s">
+      <c r="E161" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F161" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G161" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="20"/>
+      <c r="F161" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G161" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H161" s="20"/>
+      <c r="I161" s="20"/>
+      <c r="J161" s="21"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B162" s="15" t="s">
@@ -4557,18 +4563,18 @@
       <c r="D162" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E162" s="16" t="s">
+      <c r="E162" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F162" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G162" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="20"/>
+      <c r="F162" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G162" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H162" s="20"/>
+      <c r="I162" s="20"/>
+      <c r="J162" s="21"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B163" s="15" t="s">
@@ -4580,18 +4586,18 @@
       <c r="D163" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E163" s="16" t="s">
+      <c r="E163" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F163" s="18">
+      <c r="F163" s="19">
         <v>40000</v>
       </c>
-      <c r="G163" s="18">
+      <c r="G163" s="19">
         <v>1000000</v>
       </c>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="20"/>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="21"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B164" s="15" t="s">
@@ -4603,18 +4609,18 @@
       <c r="D164" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E164" s="16" t="s">
+      <c r="E164" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F164" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G164" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="20"/>
+      <c r="F164" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G164" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+      <c r="J164" s="21"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B165" s="15" t="s">
@@ -4626,18 +4632,18 @@
       <c r="D165" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E165" s="16" t="s">
+      <c r="E165" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F165" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G165" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="20"/>
+      <c r="F165" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G165" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+      <c r="J165" s="21"/>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B166" s="15" t="s">
@@ -4649,18 +4655,18 @@
       <c r="D166" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E166" s="16" t="s">
+      <c r="E166" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F166" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G166" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="20"/>
+      <c r="F166" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G166" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H166" s="20"/>
+      <c r="I166" s="20"/>
+      <c r="J166" s="21"/>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B167" s="15" t="s">
@@ -4672,18 +4678,18 @@
       <c r="D167" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E167" s="16" t="s">
+      <c r="E167" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F167" s="18">
+      <c r="F167" s="19">
         <v>40000</v>
       </c>
-      <c r="G167" s="18">
+      <c r="G167" s="19">
         <v>1000000</v>
       </c>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="20"/>
+      <c r="H167" s="20"/>
+      <c r="I167" s="20"/>
+      <c r="J167" s="21"/>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B168" s="15" t="s">
@@ -4695,18 +4701,18 @@
       <c r="D168" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E168" s="16" t="s">
+      <c r="E168" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F168" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G168" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="20"/>
+      <c r="F168" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G168" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H168" s="20"/>
+      <c r="I168" s="20"/>
+      <c r="J168" s="21"/>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B169" s="15" t="s">
@@ -4718,18 +4724,18 @@
       <c r="D169" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E169" s="16" t="s">
+      <c r="E169" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F169" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G169" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="20"/>
+      <c r="F169" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G169" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H169" s="20"/>
+      <c r="I169" s="20"/>
+      <c r="J169" s="21"/>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B170" s="15" t="s">
@@ -4741,18 +4747,18 @@
       <c r="D170" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E170" s="16" t="s">
+      <c r="E170" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F170" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G170" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-      <c r="J170" s="20"/>
+      <c r="F170" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G170" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H170" s="20"/>
+      <c r="I170" s="20"/>
+      <c r="J170" s="21"/>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B171" s="15" t="s">
@@ -4764,18 +4770,18 @@
       <c r="D171" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E171" s="16" t="s">
+      <c r="E171" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F171" s="18">
+      <c r="F171" s="19">
         <v>40000</v>
       </c>
-      <c r="G171" s="18">
+      <c r="G171" s="19">
         <v>1000000</v>
       </c>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="20"/>
+      <c r="H171" s="20"/>
+      <c r="I171" s="20"/>
+      <c r="J171" s="21"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B172" s="15" t="s">
@@ -4787,18 +4793,18 @@
       <c r="D172" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E172" s="16" t="s">
+      <c r="E172" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F172" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G172" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="20"/>
+      <c r="F172" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G172" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H172" s="20"/>
+      <c r="I172" s="20"/>
+      <c r="J172" s="21"/>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B173" s="15" t="s">
@@ -4810,18 +4816,18 @@
       <c r="D173" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E173" s="16" t="s">
+      <c r="E173" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F173" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G173" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="20"/>
+      <c r="F173" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G173" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H173" s="20"/>
+      <c r="I173" s="20"/>
+      <c r="J173" s="21"/>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B174" s="15" t="s">
@@ -4833,18 +4839,18 @@
       <c r="D174" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E174" s="16" t="s">
+      <c r="E174" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F174" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G174" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="20"/>
+      <c r="F174" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G174" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H174" s="20"/>
+      <c r="I174" s="20"/>
+      <c r="J174" s="21"/>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B175" s="15" t="s">
@@ -4856,18 +4862,18 @@
       <c r="D175" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E175" s="16" t="s">
+      <c r="E175" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F175" s="18">
+      <c r="F175" s="19">
         <v>40000</v>
       </c>
-      <c r="G175" s="18">
+      <c r="G175" s="19">
         <v>1000000</v>
       </c>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="20"/>
+      <c r="H175" s="20"/>
+      <c r="I175" s="20"/>
+      <c r="J175" s="21"/>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B176" s="15" t="s">
@@ -4879,18 +4885,18 @@
       <c r="D176" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E176" s="16" t="s">
+      <c r="E176" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F176" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G176" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="20"/>
+      <c r="F176" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G176" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H176" s="20"/>
+      <c r="I176" s="20"/>
+      <c r="J176" s="21"/>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B177" s="15" t="s">
@@ -4902,18 +4908,18 @@
       <c r="D177" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E177" s="16" t="s">
+      <c r="E177" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F177" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G177" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="20"/>
+      <c r="F177" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G177" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H177" s="20"/>
+      <c r="I177" s="20"/>
+      <c r="J177" s="21"/>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B178" s="15" t="s">
@@ -4925,18 +4931,18 @@
       <c r="D178" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E178" s="16" t="s">
+      <c r="E178" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F178" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G178" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="20"/>
+      <c r="F178" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G178" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H178" s="20"/>
+      <c r="I178" s="20"/>
+      <c r="J178" s="21"/>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B179" s="15" t="s">
@@ -4948,18 +4954,18 @@
       <c r="D179" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E179" s="16" t="s">
+      <c r="E179" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F179" s="18">
+      <c r="F179" s="19">
         <v>40000</v>
       </c>
-      <c r="G179" s="18">
+      <c r="G179" s="19">
         <v>1000000</v>
       </c>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="20"/>
+      <c r="H179" s="20"/>
+      <c r="I179" s="20"/>
+      <c r="J179" s="21"/>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B180" s="15" t="s">
@@ -4971,18 +4977,18 @@
       <c r="D180" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E180" s="16" t="s">
+      <c r="E180" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F180" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G180" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="20"/>
+      <c r="F180" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G180" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H180" s="20"/>
+      <c r="I180" s="20"/>
+      <c r="J180" s="21"/>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B181" s="15" t="s">
@@ -4994,18 +5000,18 @@
       <c r="D181" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E181" s="16" t="s">
+      <c r="E181" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F181" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G181" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-      <c r="J181" s="20"/>
+      <c r="F181" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G181" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H181" s="20"/>
+      <c r="I181" s="20"/>
+      <c r="J181" s="21"/>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B182" s="15" t="s">
@@ -5017,18 +5023,18 @@
       <c r="D182" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E182" s="16" t="s">
+      <c r="E182" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F182" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G182" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="20"/>
+      <c r="F182" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G182" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H182" s="20"/>
+      <c r="I182" s="20"/>
+      <c r="J182" s="21"/>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B183" s="15" t="s">
@@ -5040,18 +5046,18 @@
       <c r="D183" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E183" s="16" t="s">
+      <c r="E183" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F183" s="18">
+      <c r="F183" s="19">
         <v>40000</v>
       </c>
-      <c r="G183" s="18">
+      <c r="G183" s="19">
         <v>1000000</v>
       </c>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="20"/>
+      <c r="H183" s="20"/>
+      <c r="I183" s="20"/>
+      <c r="J183" s="21"/>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B184" s="15" t="s">
@@ -5063,18 +5069,18 @@
       <c r="D184" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E184" s="16" t="s">
+      <c r="E184" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F184" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G184" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="20"/>
+      <c r="F184" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G184" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H184" s="20"/>
+      <c r="I184" s="20"/>
+      <c r="J184" s="21"/>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B185" s="15" t="s">
@@ -5086,18 +5092,18 @@
       <c r="D185" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E185" s="16" t="s">
+      <c r="E185" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F185" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G185" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="20"/>
+      <c r="F185" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G185" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H185" s="20"/>
+      <c r="I185" s="20"/>
+      <c r="J185" s="21"/>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B186" s="15" t="s">
@@ -5109,18 +5115,18 @@
       <c r="D186" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E186" s="16" t="s">
+      <c r="E186" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F186" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G186" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="20"/>
+      <c r="F186" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G186" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H186" s="20"/>
+      <c r="I186" s="20"/>
+      <c r="J186" s="21"/>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B187" s="15" t="s">
@@ -5132,18 +5138,18 @@
       <c r="D187" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E187" s="16" t="s">
+      <c r="E187" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F187" s="18">
+      <c r="F187" s="19">
         <v>40000</v>
       </c>
-      <c r="G187" s="18">
+      <c r="G187" s="19">
         <v>1000000</v>
       </c>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-      <c r="J187" s="20"/>
+      <c r="H187" s="20"/>
+      <c r="I187" s="20"/>
+      <c r="J187" s="21"/>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B188" s="15" t="s">
@@ -5155,18 +5161,18 @@
       <c r="D188" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E188" s="16" t="s">
+      <c r="E188" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F188" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G188" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-      <c r="J188" s="20"/>
+      <c r="F188" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G188" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H188" s="20"/>
+      <c r="I188" s="20"/>
+      <c r="J188" s="21"/>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B189" s="15" t="s">
@@ -5178,18 +5184,18 @@
       <c r="D189" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E189" s="16" t="s">
+      <c r="E189" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F189" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G189" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="20"/>
+      <c r="F189" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G189" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H189" s="20"/>
+      <c r="I189" s="20"/>
+      <c r="J189" s="21"/>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B190" s="15" t="s">
@@ -5201,18 +5207,18 @@
       <c r="D190" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E190" s="16" t="s">
+      <c r="E190" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F190" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G190" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-      <c r="J190" s="20"/>
+      <c r="F190" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G190" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H190" s="20"/>
+      <c r="I190" s="20"/>
+      <c r="J190" s="21"/>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B191" s="15" t="s">
@@ -5224,18 +5230,18 @@
       <c r="D191" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E191" s="16" t="s">
+      <c r="E191" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F191" s="18">
+      <c r="F191" s="19">
         <v>40000</v>
       </c>
-      <c r="G191" s="18">
+      <c r="G191" s="19">
         <v>1000000</v>
       </c>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="20"/>
+      <c r="H191" s="20"/>
+      <c r="I191" s="20"/>
+      <c r="J191" s="21"/>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B192" s="15" t="s">
@@ -5247,18 +5253,18 @@
       <c r="D192" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E192" s="16" t="s">
+      <c r="E192" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F192" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G192" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="20"/>
+      <c r="F192" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G192" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H192" s="20"/>
+      <c r="I192" s="20"/>
+      <c r="J192" s="21"/>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B193" s="15" t="s">
@@ -5270,18 +5276,18 @@
       <c r="D193" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E193" s="16" t="s">
+      <c r="E193" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F193" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G193" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="20"/>
+      <c r="F193" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G193" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H193" s="20"/>
+      <c r="I193" s="20"/>
+      <c r="J193" s="21"/>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B194" s="15" t="s">
@@ -5293,18 +5299,18 @@
       <c r="D194" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E194" s="16" t="s">
+      <c r="E194" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F194" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G194" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="20"/>
+      <c r="F194" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G194" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H194" s="20"/>
+      <c r="I194" s="20"/>
+      <c r="J194" s="21"/>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B195" s="15" t="s">
@@ -5316,18 +5322,18 @@
       <c r="D195" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E195" s="16" t="s">
+      <c r="E195" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F195" s="18">
+      <c r="F195" s="19">
         <v>40000</v>
       </c>
-      <c r="G195" s="18">
+      <c r="G195" s="19">
         <v>1000000</v>
       </c>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="20"/>
+      <c r="H195" s="20"/>
+      <c r="I195" s="20"/>
+      <c r="J195" s="21"/>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B196" s="15" t="s">
@@ -5339,18 +5345,18 @@
       <c r="D196" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E196" s="16" t="s">
+      <c r="E196" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F196" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G196" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="20"/>
+      <c r="F196" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G196" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H196" s="20"/>
+      <c r="I196" s="20"/>
+      <c r="J196" s="21"/>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B197" s="15" t="s">
@@ -5362,18 +5368,18 @@
       <c r="D197" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E197" s="16" t="s">
+      <c r="E197" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F197" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G197" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="20"/>
+      <c r="F197" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G197" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H197" s="20"/>
+      <c r="I197" s="20"/>
+      <c r="J197" s="21"/>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B198" s="15" t="s">
@@ -5385,18 +5391,18 @@
       <c r="D198" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E198" s="16" t="s">
+      <c r="E198" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F198" s="18">
+      <c r="F198" s="19">
         <v>27083</v>
       </c>
-      <c r="G198" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H198" s="19"/>
-      <c r="I198" s="19"/>
-      <c r="J198" s="20"/>
+      <c r="G198" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H198" s="20"/>
+      <c r="I198" s="20"/>
+      <c r="J198" s="21"/>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B199" s="15" t="s">
@@ -5408,18 +5414,18 @@
       <c r="D199" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E199" s="16" t="s">
+      <c r="E199" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F199" s="18">
+      <c r="F199" s="19">
         <v>34666</v>
       </c>
-      <c r="G199" s="18">
+      <c r="G199" s="19">
         <v>1000000</v>
       </c>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-      <c r="J199" s="20"/>
+      <c r="H199" s="20"/>
+      <c r="I199" s="20"/>
+      <c r="J199" s="21"/>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B200" s="15" t="s">
@@ -5431,47 +5437,47 @@
       <c r="D200" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E200" s="16" t="s">
+      <c r="E200" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F200" s="18">
+      <c r="F200" s="19">
         <v>27083</v>
       </c>
-      <c r="G200" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
-      <c r="J200" s="20"/>
+      <c r="G200" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H200" s="20"/>
+      <c r="I200" s="20"/>
+      <c r="J200" s="21"/>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B201" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C201" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D201" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E201" s="22" t="s">
+      <c r="B201" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E201" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F201" s="24">
+      <c r="F201" s="26">
         <v>27083</v>
       </c>
-      <c r="G201" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H201" s="25"/>
-      <c r="I201" s="25"/>
-      <c r="J201" s="26"/>
+      <c r="G201" s="26">
+        <v>781242</v>
+      </c>
+      <c r="H201" s="27"/>
+      <c r="I201" s="27"/>
+      <c r="J201" s="28"/>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B206" s="32" t="s">
+      <c r="B206" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C206" s="32"/>
+      <c r="C206" s="34"/>
       <c r="H206" s="1" t="s">
         <v>84</v>
       </c>
@@ -5479,10 +5485,10 @@
       <c r="J206" s="1"/>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B207" s="32" t="s">
+      <c r="B207" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C207" s="32"/>
+      <c r="C207" s="34"/>
       <c r="H207" s="1" t="s">
         <v>85</v>
       </c>
